--- a/tut05/output/0501EE16.xlsx
+++ b/tut05/output/0501EE16.xlsx
@@ -514,16 +514,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.040816326530612</v>
+        <v>4.04</v>
       </c>
       <c r="C6" t="n">
-        <v>3.886363636363636</v>
+        <v>3.89</v>
       </c>
       <c r="D6" t="n">
-        <v>2.847826086956522</v>
+        <v>2.85</v>
       </c>
       <c r="E6" t="n">
-        <v>4.847826086956522</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.040816326530612</v>
+        <v>4.04</v>
       </c>
       <c r="C8" t="n">
-        <v>3.967741935483871</v>
+        <v>3.97</v>
       </c>
       <c r="D8" t="n">
-        <v>3.597122302158273</v>
+        <v>3.6</v>
       </c>
       <c r="E8" t="n">
-        <v>3.908108108108108</v>
+        <v>3.91</v>
       </c>
     </row>
   </sheetData>
